--- a/data/8176.xlsx
+++ b/data/8176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43021,6 +43021,41 @@
         <v>1119000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>8176</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>ATAIMS</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>578600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8176.xlsx
+++ b/data/8176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43056,6 +43056,41 @@
         <v>578600</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>8176</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>ATAIMS</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>923100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8176.xlsx
+++ b/data/8176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43091,6 +43091,41 @@
         <v>923100</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>8176</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>ATAIMS</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>2240600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8176.xlsx
+++ b/data/8176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43126,6 +43126,41 @@
         <v>2240600</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>8176</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>ATAIMS</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>51500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8176.xlsx
+++ b/data/8176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43161,6 +43161,41 @@
         <v>51500</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>8176</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>ATAIMS</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>1520000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8176.xlsx
+++ b/data/8176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43196,6 +43196,41 @@
         <v>1520000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>8176</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>ATAIMS</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>426000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8176.xlsx
+++ b/data/8176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43231,6 +43231,41 @@
         <v>426000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>8176</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>ATAIMS</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>218600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8176.xlsx
+++ b/data/8176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43266,6 +43266,41 @@
         <v>218600</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>8176</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>ATAIMS</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>62200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8176.xlsx
+++ b/data/8176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43301,6 +43301,41 @@
         <v>62200</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>8176</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>ATAIMS</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>305100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8176.xlsx
+++ b/data/8176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43336,6 +43336,41 @@
         <v>305100</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>8176</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>ATAIMS</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>67100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8176.xlsx
+++ b/data/8176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43371,6 +43371,41 @@
         <v>67100</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>8176</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>ATAIMS</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>871900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8176.xlsx
+++ b/data/8176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43406,6 +43406,41 @@
         <v>871900</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>8176</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>ATAIMS</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>288000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8176.xlsx
+++ b/data/8176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43441,6 +43441,76 @@
         <v>288000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>8176</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>ATAIMS</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>466100</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>8176</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>ATAIMS</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>210200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8176.xlsx
+++ b/data/8176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43511,6 +43511,76 @@
         <v>210200</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>8176</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>ATAIMS</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>8176</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>ATAIMS</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>123400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8176.xlsx
+++ b/data/8176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43581,6 +43581,41 @@
         <v>123400</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>8176</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>ATAIMS</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>123800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8176.xlsx
+++ b/data/8176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43616,6 +43616,41 @@
         <v>123800</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>8176</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>ATAIMS</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>11400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8176.xlsx
+++ b/data/8176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43651,6 +43651,41 @@
         <v>11400</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>8176</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>ATAIMS</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>165900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8176.xlsx
+++ b/data/8176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43686,6 +43686,41 @@
         <v>165900</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>8176</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>ATAIMS</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>578800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8176.xlsx
+++ b/data/8176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43721,6 +43721,76 @@
         <v>578800</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>8176</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>ATAIMS</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>1578900</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>8176</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>ATAIMS</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>1902400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8176.xlsx
+++ b/data/8176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43791,6 +43791,41 @@
         <v>1902400</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>8176</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>ATAIMS</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>681500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8176.xlsx
+++ b/data/8176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43826,6 +43826,41 @@
         <v>681500</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>8176</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>ATAIMS</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>300100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8176.xlsx
+++ b/data/8176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2564"/>
+  <dimension ref="A1:I2565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90166,6 +90166,41 @@
         <v>300100</v>
       </c>
     </row>
+    <row r="2565">
+      <c r="A2565" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2565" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2565" t="inlineStr">
+        <is>
+          <t>8176</t>
+        </is>
+      </c>
+      <c r="D2565" t="inlineStr">
+        <is>
+          <t>ATAIMS</t>
+        </is>
+      </c>
+      <c r="E2565" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F2565" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G2565" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H2565" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I2565" t="n">
+        <v>76300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8176.xlsx
+++ b/data/8176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2565"/>
+  <dimension ref="A1:I2566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90201,6 +90201,41 @@
         <v>76300</v>
       </c>
     </row>
+    <row r="2566">
+      <c r="A2566" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2566" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2566" t="inlineStr">
+        <is>
+          <t>8176</t>
+        </is>
+      </c>
+      <c r="D2566" t="inlineStr">
+        <is>
+          <t>ATAIMS</t>
+        </is>
+      </c>
+      <c r="E2566" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F2566" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G2566" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H2566" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I2566" t="n">
+        <v>112200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8176.xlsx
+++ b/data/8176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2566"/>
+  <dimension ref="A1:I2567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90236,6 +90236,41 @@
         <v>112200</v>
       </c>
     </row>
+    <row r="2567">
+      <c r="A2567" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2567" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2567" t="inlineStr">
+        <is>
+          <t>8176</t>
+        </is>
+      </c>
+      <c r="D2567" t="inlineStr">
+        <is>
+          <t>ATAIMS</t>
+        </is>
+      </c>
+      <c r="E2567" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F2567" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G2567" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H2567" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I2567" t="n">
+        <v>437000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8176.xlsx
+++ b/data/8176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2567"/>
+  <dimension ref="A1:I2568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90271,6 +90271,41 @@
         <v>437000</v>
       </c>
     </row>
+    <row r="2568">
+      <c r="A2568" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2568" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2568" t="inlineStr">
+        <is>
+          <t>8176</t>
+        </is>
+      </c>
+      <c r="D2568" t="inlineStr">
+        <is>
+          <t>ATAIMS</t>
+        </is>
+      </c>
+      <c r="E2568" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F2568" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G2568" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H2568" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I2568" t="n">
+        <v>467100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8176.xlsx
+++ b/data/8176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2568"/>
+  <dimension ref="A1:I2569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90306,6 +90306,41 @@
         <v>467100</v>
       </c>
     </row>
+    <row r="2569">
+      <c r="A2569" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2569" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2569" t="inlineStr">
+        <is>
+          <t>8176</t>
+        </is>
+      </c>
+      <c r="D2569" t="inlineStr">
+        <is>
+          <t>ATAIMS</t>
+        </is>
+      </c>
+      <c r="E2569" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F2569" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G2569" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H2569" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="I2569" t="n">
+        <v>1460900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8176.xlsx
+++ b/data/8176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2569"/>
+  <dimension ref="A1:I2570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90341,6 +90341,41 @@
         <v>1460900</v>
       </c>
     </row>
+    <row r="2570">
+      <c r="A2570" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2570" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2570" t="inlineStr">
+        <is>
+          <t>8176</t>
+        </is>
+      </c>
+      <c r="D2570" t="inlineStr">
+        <is>
+          <t>ATAIMS</t>
+        </is>
+      </c>
+      <c r="E2570" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F2570" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G2570" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H2570" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I2570" t="n">
+        <v>527200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8176.xlsx
+++ b/data/8176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2570"/>
+  <dimension ref="A1:I2571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90376,6 +90376,41 @@
         <v>527200</v>
       </c>
     </row>
+    <row r="2571">
+      <c r="A2571" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2571" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2571" t="inlineStr">
+        <is>
+          <t>8176</t>
+        </is>
+      </c>
+      <c r="D2571" t="inlineStr">
+        <is>
+          <t>ATAIMS</t>
+        </is>
+      </c>
+      <c r="E2571" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="F2571" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G2571" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="H2571" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="I2571" t="n">
+        <v>375800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8176.xlsx
+++ b/data/8176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2571"/>
+  <dimension ref="A1:I2572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90411,6 +90411,41 @@
         <v>375800</v>
       </c>
     </row>
+    <row r="2572">
+      <c r="A2572" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2572" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2572" t="inlineStr">
+        <is>
+          <t>8176</t>
+        </is>
+      </c>
+      <c r="D2572" t="inlineStr">
+        <is>
+          <t>ATAIMS</t>
+        </is>
+      </c>
+      <c r="E2572" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F2572" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G2572" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H2572" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="I2572" t="n">
+        <v>870000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8176.xlsx
+++ b/data/8176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2572"/>
+  <dimension ref="A1:I2573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90446,6 +90446,41 @@
         <v>870000</v>
       </c>
     </row>
+    <row r="2573">
+      <c r="A2573" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2573" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2573" t="inlineStr">
+        <is>
+          <t>8176</t>
+        </is>
+      </c>
+      <c r="D2573" t="inlineStr">
+        <is>
+          <t>ATAIMS</t>
+        </is>
+      </c>
+      <c r="E2573" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F2573" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="G2573" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="H2573" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="I2573" t="n">
+        <v>357300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8176.xlsx
+++ b/data/8176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2573"/>
+  <dimension ref="A1:I2574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90481,6 +90481,41 @@
         <v>357300</v>
       </c>
     </row>
+    <row r="2574">
+      <c r="A2574" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2574" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2574" t="inlineStr">
+        <is>
+          <t>8176</t>
+        </is>
+      </c>
+      <c r="D2574" t="inlineStr">
+        <is>
+          <t>ATAIMS</t>
+        </is>
+      </c>
+      <c r="E2574" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="F2574" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G2574" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="H2574" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="I2574" t="n">
+        <v>1160900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8176.xlsx
+++ b/data/8176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2574"/>
+  <dimension ref="A1:I2575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90516,6 +90516,41 @@
         <v>1160900</v>
       </c>
     </row>
+    <row r="2575">
+      <c r="A2575" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2575" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2575" t="inlineStr">
+        <is>
+          <t>8176</t>
+        </is>
+      </c>
+      <c r="D2575" t="inlineStr">
+        <is>
+          <t>ATAIMS</t>
+        </is>
+      </c>
+      <c r="E2575" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="F2575" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="G2575" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="H2575" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="I2575" t="n">
+        <v>521600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8176.xlsx
+++ b/data/8176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2575"/>
+  <dimension ref="A1:I2576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90551,6 +90551,41 @@
         <v>521600</v>
       </c>
     </row>
+    <row r="2576">
+      <c r="A2576" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2576" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2576" t="inlineStr">
+        <is>
+          <t>8176</t>
+        </is>
+      </c>
+      <c r="D2576" t="inlineStr">
+        <is>
+          <t>ATAIMS</t>
+        </is>
+      </c>
+      <c r="E2576" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="F2576" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G2576" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H2576" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I2576" t="n">
+        <v>665200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8176.xlsx
+++ b/data/8176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2576"/>
+  <dimension ref="A1:I2577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90586,6 +90586,41 @@
         <v>665200</v>
       </c>
     </row>
+    <row r="2577">
+      <c r="A2577" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2577" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2577" t="inlineStr">
+        <is>
+          <t>8176</t>
+        </is>
+      </c>
+      <c r="D2577" t="inlineStr">
+        <is>
+          <t>ATAIMS</t>
+        </is>
+      </c>
+      <c r="E2577" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F2577" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G2577" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="H2577" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="I2577" t="n">
+        <v>438600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8176.xlsx
+++ b/data/8176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2577"/>
+  <dimension ref="A1:I2578"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90621,6 +90621,41 @@
         <v>438600</v>
       </c>
     </row>
+    <row r="2578">
+      <c r="A2578" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2578" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2578" t="inlineStr">
+        <is>
+          <t>8176</t>
+        </is>
+      </c>
+      <c r="D2578" t="inlineStr">
+        <is>
+          <t>ATAIMS</t>
+        </is>
+      </c>
+      <c r="E2578" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="F2578" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2578" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H2578" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I2578" t="n">
+        <v>256800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8176.xlsx
+++ b/data/8176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2578"/>
+  <dimension ref="A1:I2579"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90656,6 +90656,41 @@
         <v>256800</v>
       </c>
     </row>
+    <row r="2579">
+      <c r="A2579" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2579" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2579" t="inlineStr">
+        <is>
+          <t>8176</t>
+        </is>
+      </c>
+      <c r="D2579" t="inlineStr">
+        <is>
+          <t>ATAIMS</t>
+        </is>
+      </c>
+      <c r="E2579" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="F2579" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="G2579" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="H2579" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="I2579" t="n">
+        <v>88100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
